--- a/src/raw_data/user_error_config.xlsx
+++ b/src/raw_data/user_error_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF47556-5A3F-794E-BB54-7C209C602A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ABD760-68BD-A443-B37F-076C0847A825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="1020" windowWidth="16840" windowHeight="21080" xr2:uid="{626C9B5B-E040-FC44-A9E5-5F14A96B8943}"/>
   </bookViews>
@@ -800,7 +800,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/raw_data/user_error_config.xlsx
+++ b/src/raw_data/user_error_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ABD760-68BD-A443-B37F-076C0847A825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB47C7A-A2E8-074E-AAB6-195760E7925E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="1020" windowWidth="16840" windowHeight="21080" xr2:uid="{626C9B5B-E040-FC44-A9E5-5F14A96B8943}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="127">
   <si>
     <t>error_code</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>validate</t>
+  </si>
+  <si>
+    <t>error_level</t>
   </si>
 </sst>
 </file>
@@ -797,1630 +800,1703 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCECA078-69AF-BC4B-BFC0-9E083A89901D}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1101</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1102</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>57</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1103</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>58</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1104</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>59</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1105</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>60</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1106</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>61</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1107</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>62</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1108</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1201</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1202</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>65</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1203</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>66</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1204</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1205</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>69</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2101</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>70</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2102</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>71</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>8</v>
       </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2103</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>72</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2104</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2105</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>74</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2106</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>75</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>8</v>
       </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3101</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>76</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3102</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>77</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>8</v>
       </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3103</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>78</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>8</v>
       </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3104</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>79</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>8</v>
       </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
-      <c r="G25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>3105</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>80</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>8</v>
       </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
-      <c r="G26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3106</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>81</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>8</v>
       </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>3107</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>82</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>3108</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>83</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>8</v>
       </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>4101</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>84</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="b">
-        <v>1</v>
+      <c r="E30" t="s">
+        <v>7</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>4102</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>85</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
+      <c r="E31" t="s">
+        <v>7</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
       </c>
-      <c r="G31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>4103</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>86</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
+      <c r="E32" t="s">
+        <v>7</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
-      <c r="G32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>4104</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" t="s">
         <v>17</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>87</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
+      <c r="E33" t="s">
+        <v>7</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
-      <c r="G33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>4105</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1"/>
+      <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>88</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
+      <c r="E34" t="s">
+        <v>7</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
       </c>
-      <c r="G34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>4106</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1"/>
+      <c r="C35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>89</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
+      <c r="E35" t="s">
+        <v>7</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
       </c>
-      <c r="G35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>4107</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1"/>
+      <c r="C36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>90</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
+      <c r="E36" t="s">
+        <v>7</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
       </c>
-      <c r="G36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>4108</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>91</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
+      <c r="E37" t="s">
+        <v>7</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
       </c>
-      <c r="G37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>4109</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>92</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
+      <c r="E38" t="s">
+        <v>7</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
       </c>
-      <c r="G38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>4110</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1"/>
+      <c r="C39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>93</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" t="b">
-        <v>1</v>
+      <c r="E39" t="s">
+        <v>7</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>4111</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1"/>
+      <c r="C40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>94</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
+      <c r="E40" t="s">
+        <v>7</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
-      <c r="G40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>4112</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1"/>
+      <c r="C41" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>95</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="b">
-        <v>1</v>
+      <c r="E41" t="s">
+        <v>7</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
       </c>
-      <c r="G41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>4113</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1"/>
+      <c r="C42" t="s">
         <v>36</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>96</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
+      <c r="E42" t="s">
+        <v>7</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
       </c>
-      <c r="G42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>4114</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1"/>
+      <c r="C43" t="s">
         <v>21</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>97</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
+      <c r="E43" t="s">
+        <v>7</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>4201</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1"/>
+      <c r="C44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>98</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" t="b">
-        <v>1</v>
+      <c r="E44" t="s">
+        <v>7</v>
       </c>
       <c r="F44" t="b">
         <v>1</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>4202</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>99</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" t="b">
-        <v>1</v>
+      <c r="E45" t="s">
+        <v>7</v>
       </c>
       <c r="F45" t="b">
         <v>1</v>
       </c>
-      <c r="G45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>4203</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1"/>
+      <c r="C46" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>100</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" t="b">
-        <v>1</v>
+      <c r="E46" t="s">
+        <v>7</v>
       </c>
       <c r="F46" t="b">
         <v>1</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>4204</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1"/>
+      <c r="C47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>101</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" t="b">
-        <v>1</v>
+      <c r="E47" t="s">
+        <v>7</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>4205</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1"/>
+      <c r="C48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>102</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" t="b">
-        <v>1</v>
+      <c r="E48" t="s">
+        <v>7</v>
       </c>
       <c r="F48" t="b">
         <v>1</v>
       </c>
-      <c r="G48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>4206</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1"/>
+      <c r="C49" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>103</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" t="b">
-        <v>1</v>
+      <c r="E49" t="s">
+        <v>7</v>
       </c>
       <c r="F49" t="b">
         <v>1</v>
       </c>
-      <c r="G49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>4207</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1"/>
+      <c r="C50" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>104</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" t="b">
-        <v>1</v>
+      <c r="E50" t="s">
+        <v>7</v>
       </c>
       <c r="F50" t="b">
         <v>1</v>
       </c>
-      <c r="G50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>4208</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1"/>
+      <c r="C51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>105</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" t="b">
-        <v>1</v>
+      <c r="E51" t="s">
+        <v>7</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
       </c>
-      <c r="G51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>4209</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="1"/>
+      <c r="C52" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>106</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" t="b">
-        <v>1</v>
+      <c r="E52" t="s">
+        <v>7</v>
       </c>
       <c r="F52" t="b">
         <v>1</v>
       </c>
-      <c r="G52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>4210</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1"/>
+      <c r="C53" t="s">
         <v>44</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>107</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" t="b">
-        <v>1</v>
+      <c r="E53" t="s">
+        <v>7</v>
       </c>
       <c r="F53" t="b">
         <v>1</v>
       </c>
-      <c r="G53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>4211</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1"/>
+      <c r="C54" t="s">
         <v>45</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>108</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" t="b">
-        <v>1</v>
+      <c r="E54" t="s">
+        <v>7</v>
       </c>
       <c r="F54" t="b">
         <v>1</v>
       </c>
-      <c r="G54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>4212</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1"/>
+      <c r="C55" t="s">
         <v>46</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>109</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" t="b">
-        <v>1</v>
+      <c r="E55" t="s">
+        <v>7</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
       </c>
-      <c r="G55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>4301</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1"/>
+      <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>110</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" t="b">
-        <v>1</v>
+      <c r="E56" t="s">
+        <v>7</v>
       </c>
       <c r="F56" t="b">
         <v>1</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>4302</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1"/>
+      <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>111</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" t="b">
-        <v>1</v>
+      <c r="E57" t="s">
+        <v>7</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
       </c>
-      <c r="G57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>4303</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1"/>
+      <c r="C58" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>112</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" t="b">
-        <v>1</v>
+      <c r="E58" t="s">
+        <v>7</v>
       </c>
       <c r="F58" t="b">
         <v>1</v>
       </c>
-      <c r="G58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>4304</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1"/>
+      <c r="C59" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>113</v>
       </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" t="b">
-        <v>1</v>
+      <c r="E59" t="s">
+        <v>7</v>
       </c>
       <c r="F59" t="b">
         <v>1</v>
       </c>
-      <c r="G59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>4305</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1"/>
+      <c r="C60" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>114</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" t="b">
-        <v>1</v>
+      <c r="E60" t="s">
+        <v>7</v>
       </c>
       <c r="F60" t="b">
         <v>1</v>
       </c>
-      <c r="G60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>4306</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1"/>
+      <c r="C61" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>115</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" t="b">
-        <v>1</v>
+      <c r="E61" t="s">
+        <v>7</v>
       </c>
       <c r="F61" t="b">
         <v>1</v>
       </c>
-      <c r="G61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>4307</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1"/>
+      <c r="C62" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>116</v>
       </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" t="b">
-        <v>1</v>
+      <c r="E62" t="s">
+        <v>7</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
       </c>
-      <c r="G62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>4401</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1"/>
+      <c r="C63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>117</v>
       </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" t="b">
-        <v>1</v>
+      <c r="E63" t="s">
+        <v>7</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>4402</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1"/>
+      <c r="C64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>118</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" t="b">
-        <v>1</v>
+      <c r="E64" t="s">
+        <v>7</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
       </c>
-      <c r="G64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>4403</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1"/>
+      <c r="C65" t="s">
         <v>24</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>119</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" t="b">
-        <v>1</v>
+      <c r="E65" t="s">
+        <v>7</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
       </c>
-      <c r="G65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>4404</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1"/>
+      <c r="C66" t="s">
         <v>17</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>120</v>
       </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" t="b">
-        <v>1</v>
+      <c r="E66" t="s">
+        <v>7</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
       </c>
-      <c r="G66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>4405</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1"/>
+      <c r="C67" t="s">
         <v>52</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>121</v>
       </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" t="b">
-        <v>1</v>
+      <c r="E67" t="s">
+        <v>7</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
       </c>
-      <c r="G67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>4406</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1"/>
+      <c r="C68" t="s">
         <v>31</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>122</v>
       </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" t="b">
-        <v>1</v>
+      <c r="E68" t="s">
+        <v>7</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
       </c>
-      <c r="G68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>4407</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1"/>
+      <c r="C69" t="s">
         <v>18</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>123</v>
       </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" t="b">
-        <v>1</v>
+      <c r="E69" t="s">
+        <v>7</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1"/>
+      <c r="C70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>124</v>
       </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" t="b">
-        <v>1</v>
+      <c r="E70" t="s">
+        <v>7</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/raw_data/user_error_config.xlsx
+++ b/src/raw_data/user_error_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB47C7A-A2E8-074E-AAB6-195760E7925E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BBEF48-C365-E040-A96C-670533FF369D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="1020" windowWidth="16840" windowHeight="21080" xr2:uid="{626C9B5B-E040-FC44-A9E5-5F14A96B8943}"/>
+    <workbookView xWindow="23020" yWindow="1020" windowWidth="11040" windowHeight="21080" xr2:uid="{626C9B5B-E040-FC44-A9E5-5F14A96B8943}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="128">
   <si>
     <t>error_code</t>
   </si>
@@ -155,9 +155,6 @@
     <t>No house number</t>
   </si>
   <si>
-    <t>invalid combination</t>
-  </si>
-  <si>
     <t>Leading 0</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>More than 4</t>
   </si>
   <si>
-    <t>Contains Letters</t>
-  </si>
-  <si>
     <t>Invalid Value</t>
   </si>
   <si>
@@ -383,9 +377,6 @@
     <t>ZIPCODE: More than 4</t>
   </si>
   <si>
-    <t>ZIPCODE: Contains Letters</t>
-  </si>
-  <si>
     <t>ZIPCODE: Invalid Value</t>
   </si>
   <si>
@@ -416,14 +407,26 @@
     <t>validate</t>
   </si>
   <si>
-    <t>error_level</t>
+    <t>4306</t>
+  </si>
+  <si>
+    <t>4213</t>
+  </si>
+  <si>
+    <t>Contains BŠ as well as number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOUSE_NUMBER: Contains BŠ as well as number </t>
+  </si>
+  <si>
+    <t>Invalid combination</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -432,6 +435,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -458,14 +468,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,1703 +815,1627 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCECA078-69AF-BC4B-BFC0-9E083A89901D}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1101</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
       <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1102</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1103</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
       <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
         <v>5</v>
       </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1104</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
       <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
         <v>5</v>
       </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1105</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
       <c r="D6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" t="s">
         <v>5</v>
       </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1106</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
       <c r="D7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" t="s">
         <v>5</v>
       </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1107</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
       <c r="D8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" t="s">
         <v>5</v>
       </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1108</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
       <c r="D9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
         <v>5</v>
       </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1201</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
       <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
         <v>5</v>
       </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1202</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
       <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" t="s">
         <v>5</v>
       </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>1203</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
       <c r="D12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
         <v>5</v>
       </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1204</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
       <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
         <v>5</v>
       </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1205</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
       <c r="D14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" t="s">
         <v>5</v>
       </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
       <c r="D15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" t="s">
         <v>5</v>
       </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2101</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
       <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
         <v>8</v>
       </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2102</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
       <c r="D17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" t="s">
         <v>8</v>
       </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2103</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
       <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
         <v>8</v>
       </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2104</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
       <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
         <v>8</v>
       </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2105</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
       <c r="D20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" t="s">
         <v>8</v>
       </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>2106</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
       <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" t="s">
         <v>8</v>
       </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3101</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
       <c r="D22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" t="s">
         <v>8</v>
       </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3102</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
       <c r="D23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" t="s">
         <v>8</v>
       </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3103</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
       <c r="D24" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" t="s">
         <v>8</v>
       </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3104</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
       <c r="D25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" t="s">
         <v>8</v>
       </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>3105</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
       <c r="D26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" t="s">
         <v>8</v>
       </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3106</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
       <c r="D27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" t="s">
         <v>8</v>
       </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>3107</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
       <c r="D28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" t="s">
         <v>8</v>
       </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>3108</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
       <c r="D29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" t="s">
         <v>8</v>
       </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>4101</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
       <c r="D30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
       </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>4102</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
       <c r="D31" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
       </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>4103</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
       <c r="D32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>4104</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
       </c>
       <c r="F33" t="b">
         <v>1</v>
       </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>4105</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
       <c r="D34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
       </c>
       <c r="F34" t="b">
         <v>1</v>
       </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>4106</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
       <c r="D35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
       </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>4107</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
       <c r="D36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
       </c>
       <c r="F36" t="b">
         <v>1</v>
       </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>4108</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
       <c r="D37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
       </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>4109</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
       <c r="D38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
       </c>
       <c r="F38" t="b">
         <v>1</v>
       </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>4110</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
       <c r="D39" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>4111</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
       <c r="D40" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
       </c>
       <c r="F40" t="b">
         <v>1</v>
       </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>4112</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
       <c r="D41" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
       </c>
       <c r="F41" t="b">
         <v>1</v>
       </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>4113</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
       </c>
       <c r="F42" t="b">
         <v>1</v>
       </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>4114</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
       <c r="C43" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>4201</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>4202</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
         <v>97</v>
       </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>4201</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="2" t="s">
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>4203</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>4204</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>4205</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>4206</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>4207</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>4208</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="b">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>4209</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>4210</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>4211</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>4212</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>4301</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="C57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" t="b">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>4202</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" t="b">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>4203</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>4204</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" t="b">
-        <v>1</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>4205</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" t="b">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>4206</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" t="b">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>4207</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>4208</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" t="b">
-        <v>1</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>4209</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" t="b">
-        <v>1</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>4210</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="b">
-        <v>1</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>4211</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>4212</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>4302</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>4303</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D55" t="s">
-        <v>109</v>
-      </c>
-      <c r="E55" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>4301</v>
-      </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C59" t="s">
         <v>110</v>
       </c>
-      <c r="E56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>4302</v>
-      </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="b">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>4304</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" t="s">
         <v>111</v>
       </c>
-      <c r="E57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" t="b">
-        <v>1</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>4303</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>4305</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" t="s">
         <v>112</v>
       </c>
-      <c r="E58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" t="b">
-        <v>1</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>4304</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" t="s">
         <v>113</v>
       </c>
-      <c r="E59" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" t="b">
-        <v>1</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>4305</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" t="s">
-        <v>114</v>
-      </c>
-      <c r="E60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" t="b">
-        <v>1</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>4306</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D61" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>4307</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D62" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
       </c>
       <c r="F62" t="b">
         <v>1</v>
       </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>4401</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C63" t="s">
+        <v>114</v>
+      </c>
       <c r="D63" t="s">
-        <v>117</v>
-      </c>
-      <c r="E63" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
       </c>
       <c r="F63" t="b">
         <v>1</v>
       </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G63" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>4402</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
       <c r="D64" t="s">
-        <v>118</v>
-      </c>
-      <c r="E64" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
       </c>
       <c r="F64" t="b">
         <v>1</v>
       </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>4403</v>
       </c>
-      <c r="B65" s="1"/>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="D65" t="s">
-        <v>119</v>
-      </c>
-      <c r="E65" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
       </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
         <v>4404</v>
       </c>
-      <c r="B66" s="1"/>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
-      </c>
-      <c r="E66" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
       </c>
       <c r="F66" t="b">
         <v>1</v>
       </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>4405</v>
       </c>
-      <c r="B67" s="1"/>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="D67" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
       </c>
       <c r="F67" t="b">
         <v>1</v>
       </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>4406</v>
       </c>
-      <c r="B68" s="1"/>
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
-      </c>
-      <c r="E68" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
       </c>
       <c r="F68" t="b">
         <v>1</v>
       </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>4407</v>
       </c>
-      <c r="B69" s="1"/>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>123</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
       </c>
       <c r="F69" t="b">
         <v>1</v>
       </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
+      <c r="G69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C70" t="s">
+        <v>121</v>
+      </c>
       <c r="D70" t="s">
-        <v>124</v>
-      </c>
-      <c r="E70" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
       </c>
       <c r="F70" t="b">
         <v>1</v>
       </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
+      <c r="G70" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/raw_data/user_error_config.xlsx
+++ b/src/raw_data/user_error_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BBEF48-C365-E040-A96C-670533FF369D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195E88E9-F751-DB44-8246-54DA032B4F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23020" yWindow="1020" windowWidth="11040" windowHeight="21080" xr2:uid="{626C9B5B-E040-FC44-A9E5-5F14A96B8943}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="131">
   <si>
     <t>error_code</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Possibly Two Emails</t>
   </si>
   <si>
-    <t>Possibly Invalid domain</t>
-  </si>
-  <si>
     <t>Invalid characters</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
     <t>EMAIL: Possibly Two Emails</t>
   </si>
   <si>
-    <t>EMAIL: Possibly Invalid domain</t>
-  </si>
-  <si>
     <t>PHONE: Missing Data</t>
   </si>
   <si>
@@ -420,6 +414,21 @@
   </si>
   <si>
     <t>Invalid combination</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invalid domain structure</t>
+  </si>
+  <si>
+    <t>EMAIL:  Invalid domain structure</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>Possibly invalid domain</t>
+  </si>
+  <si>
+    <t>EMAIL: Possibly invalid domain</t>
   </si>
 </sst>
 </file>
@@ -815,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCECA078-69AF-BC4B-BFC0-9E083A89901D}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="169" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="169" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -837,13 +846,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -852,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -863,7 +872,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -886,7 +895,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -909,7 +918,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -932,7 +941,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -955,7 +964,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -978,7 +987,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -1001,7 +1010,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1024,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1047,7 +1056,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -1070,7 +1079,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -1093,7 +1102,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -1116,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -1139,7 +1148,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -1162,7 +1171,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -1185,7 +1194,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
@@ -1208,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -1231,7 +1240,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -1254,7 +1263,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
         <v>8</v>
@@ -1277,7 +1286,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -1297,10 +1306,10 @@
         <v>2106</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -1316,14 +1325,14 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>3101</v>
+      <c r="A22" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
@@ -1335,18 +1344,18 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
         <v>8</v>
@@ -1358,18 +1367,18 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -1386,13 +1395,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -1409,13 +1418,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -1432,13 +1441,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -1455,13 +1464,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -1478,13 +1487,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -1496,21 +1505,21 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>4101</v>
+        <v>3108</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -1519,18 +1528,18 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>4102</v>
+        <v>4101</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -1542,18 +1551,18 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>4103</v>
+        <v>4102</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -1570,13 +1579,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>4104</v>
-      </c>
-      <c r="B33" t="s">
-        <v>17</v>
+        <v>4103</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -1593,13 +1602,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>4105</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>4104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -1616,13 +1625,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -1639,13 +1648,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
@@ -1662,13 +1671,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>4108</v>
+        <v>4107</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -1685,13 +1694,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>4109</v>
+        <v>4108</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1708,13 +1717,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>4110</v>
+        <v>4109</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1726,18 +1735,18 @@
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -1749,18 +1758,18 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
@@ -1777,13 +1786,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>4113</v>
-      </c>
-      <c r="B42" t="s">
-        <v>36</v>
+        <v>4112</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
@@ -1800,59 +1809,59 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
+        <v>4113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>4114</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>21</v>
       </c>
-      <c r="C43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <v>4201</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" t="b">
-        <v>1</v>
-      </c>
-      <c r="G44" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1864,18 +1873,18 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -1887,18 +1896,18 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -1915,13 +1924,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1933,18 +1942,18 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1961,13 +1970,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -1984,13 +1993,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>4208</v>
+        <v>4207</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -2007,13 +2016,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
-        <v>4209</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>42</v>
+        <v>4208</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -2030,13 +2039,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
-        <v>4210</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>43</v>
+        <v>4209</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -2053,13 +2062,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
-        <v>4211</v>
+        <v>4210</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -2076,57 +2085,60 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
+        <v>4211</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
         <v>4212</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" t="s">
-        <v>107</v>
-      </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="B56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" t="b">
-        <v>1</v>
-      </c>
-      <c r="F56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>4301</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" t="s">
-        <v>108</v>
-      </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
@@ -2135,20 +2147,17 @@
       </c>
       <c r="F57" t="b">
         <v>1</v>
-      </c>
-      <c r="G57" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -2160,18 +2169,18 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -2188,13 +2197,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -2211,59 +2220,59 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
+        <v>4304</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>4305</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C61" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>4401</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
@@ -2275,18 +2284,18 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -2298,64 +2307,64 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
+        <v>4402</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>4403</v>
       </c>
-      <c r="B65" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" t="s">
-        <v>116</v>
-      </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" t="b">
-        <v>1</v>
-      </c>
-      <c r="G65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
         <v>4404</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>17</v>
       </c>
-      <c r="C66" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" t="b">
-        <v>1</v>
-      </c>
-      <c r="F66" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>4405</v>
-      </c>
-      <c r="B67" t="s">
-        <v>50</v>
-      </c>
       <c r="C67" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -2372,13 +2381,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>4406</v>
+        <v>4405</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -2395,47 +2404,70 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
+        <v>4406</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>4407</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>18</v>
       </c>
-      <c r="C69" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" t="b">
-        <v>1</v>
-      </c>
-      <c r="F69" t="b">
-        <v>1</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C70" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" t="b">
-        <v>1</v>
-      </c>
-      <c r="F70" t="b">
-        <v>1</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="C71" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/raw_data/user_error_config.xlsx
+++ b/src/raw_data/user_error_config.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195E88E9-F751-DB44-8246-54DA032B4F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CB6563-DE73-B84F-AC5D-58CDE3BB8831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23020" yWindow="1020" windowWidth="11040" windowHeight="21080" xr2:uid="{626C9B5B-E040-FC44-A9E5-5F14A96B8943}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="130">
   <si>
     <t>error_code</t>
   </si>
@@ -317,9 +317,6 @@
     <t>STREET_NAME: Invalid digit in Street</t>
   </si>
   <si>
-    <t>STREET_NAME: replacing šćčž to scz</t>
-  </si>
-  <si>
     <t>HOUSE_NUMBER: Missing Data</t>
   </si>
   <si>
@@ -416,9 +413,6 @@
     <t>Invalid combination</t>
   </si>
   <si>
-    <t xml:space="preserve"> Invalid domain structure</t>
-  </si>
-  <si>
     <t>EMAIL:  Invalid domain structure</t>
   </si>
   <si>
@@ -429,13 +423,16 @@
   </si>
   <si>
     <t>EMAIL: Possibly invalid domain</t>
+  </si>
+  <si>
+    <t>Invalid domain structure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,13 +453,26 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -477,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -490,6 +500,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCECA078-69AF-BC4B-BFC0-9E083A89901D}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="169" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,7 +869,7 @@
         <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1306,10 +1323,10 @@
         <v>2106</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -1326,13 +1343,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
         <v>128</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" t="s">
-        <v>130</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
@@ -1532,10 +1549,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="11">
         <v>4101</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C31" t="s">
@@ -1555,10 +1572,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="11">
         <v>4102</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C32" t="s">
@@ -1578,10 +1595,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="11">
         <v>4103</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C33" t="s">
@@ -1601,10 +1618,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="11">
         <v>4104</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C34" t="s">
@@ -1624,10 +1641,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="11">
         <v>4105</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C35" t="s">
@@ -1647,10 +1664,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="11">
         <v>4106</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C36" t="s">
@@ -1670,10 +1687,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="11">
         <v>4107</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C37" t="s">
@@ -1693,10 +1710,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="11">
         <v>4108</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C38" t="s">
@@ -1716,10 +1733,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="11">
         <v>4109</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
@@ -1739,10 +1756,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="12">
         <v>4110</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C40" t="s">
@@ -1762,10 +1779,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="11">
         <v>4111</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C41" t="s">
@@ -1785,10 +1802,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="12">
         <v>4112</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C42" t="s">
@@ -1808,10 +1825,10 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="8">
         <v>4113</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C43" t="s">
@@ -1831,11 +1848,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>4114</v>
-      </c>
-      <c r="B44" t="s">
-        <v>21</v>
+      <c r="A44" s="5">
+        <v>4201</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>93</v>
@@ -1850,15 +1867,15 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
         <v>94</v>
@@ -1873,15 +1890,15 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
         <v>95</v>
@@ -1896,15 +1913,15 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
         <v>96</v>
@@ -1924,10 +1941,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
         <v>97</v>
@@ -1942,15 +1959,15 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
         <v>98</v>
@@ -1970,10 +1987,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
         <v>99</v>
@@ -1993,10 +2010,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
         <v>100</v>
@@ -2016,10 +2033,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
-        <v>4208</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>40</v>
+        <v>4209</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C52" t="s">
         <v>101</v>
@@ -2039,10 +2056,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
-        <v>4209</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>41</v>
+        <v>4210</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C53" t="s">
         <v>102</v>
@@ -2062,10 +2079,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
-        <v>4210</v>
+        <v>4211</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C54" t="s">
         <v>103</v>
@@ -2085,10 +2102,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
         <v>104</v>
@@ -2107,38 +2124,35 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
-        <v>4212</v>
+      <c r="A56" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="C56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>4301</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
         <v>105</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" t="b">
-        <v>1</v>
-      </c>
-      <c r="F56" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" t="s">
-        <v>124</v>
-      </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
@@ -2147,14 +2161,17 @@
       </c>
       <c r="F57" t="b">
         <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
         <v>106</v>
@@ -2169,15 +2186,15 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C59" t="s">
         <v>107</v>
@@ -2197,10 +2214,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
         <v>108</v>
@@ -2220,10 +2237,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
         <v>109</v>
@@ -2242,11 +2259,11 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>4305</v>
+      <c r="A62" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
         <v>110</v>
@@ -2265,11 +2282,11 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>121</v>
+      <c r="A63" s="1">
+        <v>4401</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
         <v>111</v>
@@ -2284,15 +2301,15 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
         <v>112</v>
@@ -2307,15 +2324,15 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>4402</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>15</v>
+        <v>4403</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
       </c>
       <c r="C65" t="s">
         <v>113</v>
@@ -2334,11 +2351,11 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>4403</v>
+      <c r="A66" s="4">
+        <v>4404</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
         <v>114</v>
@@ -2357,11 +2374,11 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>4404</v>
+      <c r="A67" s="1">
+        <v>4405</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C67" t="s">
         <v>115</v>
@@ -2381,10 +2398,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>4405</v>
+        <v>4406</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C68" t="s">
         <v>116</v>
@@ -2404,10 +2421,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>4406</v>
+        <v>4407</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
         <v>117</v>
@@ -2422,15 +2439,15 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>4407</v>
-      </c>
-      <c r="B70" t="s">
-        <v>18</v>
+      <c r="A70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C70" t="s">
         <v>118</v>
@@ -2445,29 +2462,6 @@
         <v>1</v>
       </c>
       <c r="G70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" t="s">
-        <v>119</v>
-      </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" t="b">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/raw_data/user_error_config.xlsx
+++ b/src/raw_data/user_error_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CB6563-DE73-B84F-AC5D-58CDE3BB8831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDB2A8C-6419-EF41-86FB-7FBD526ED5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23020" yWindow="1020" windowWidth="11040" windowHeight="21080" xr2:uid="{626C9B5B-E040-FC44-A9E5-5F14A96B8943}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="133">
   <si>
     <t>error_code</t>
   </si>
@@ -426,13 +426,22 @@
   </si>
   <si>
     <t>Invalid domain structure</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Fallback error</t>
+  </si>
+  <si>
+    <t>EMAIL: Fallback error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -448,13 +457,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -487,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -504,9 +506,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCECA078-69AF-BC4B-BFC0-9E083A89901D}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="169" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1204,10 +1209,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="8">
         <v>2101</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
@@ -1227,10 +1232,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="8">
         <v>2102</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
@@ -1250,10 +1255,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="8">
         <v>2103</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
@@ -1273,10 +1278,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="8">
         <v>2104</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
@@ -1296,10 +1301,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="8">
         <v>2105</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
@@ -1319,10 +1324,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="8">
         <v>2106</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C21" t="s">
@@ -1342,10 +1347,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C22" t="s">
@@ -1365,37 +1370,25 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>3101</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>14</v>
+      <c r="A23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>6</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
         <v>8</v>
@@ -1407,18 +1400,18 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
@@ -1435,13 +1428,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
         <v>8</v>
@@ -1458,13 +1451,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -1481,13 +1474,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -1504,13 +1497,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
         <v>8</v>
@@ -1527,13 +1520,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
         <v>8</v>
@@ -1545,202 +1538,202 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>3108</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
         <v>4101</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>80</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
         <v>4102</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>81</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
         <v>4103</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>82</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
         <v>4104</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>83</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
         <v>4105</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>84</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
         <v>4106</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>85</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
         <v>4107</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>86</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="11">
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
         <v>4108</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B39" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>87</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
-        <v>4109</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" t="s">
-        <v>88</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
@@ -1757,106 +1750,106 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
+        <v>4109</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="13">
         <v>4110</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>89</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" t="b">
-        <v>1</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="11">
-        <v>4111</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" t="b">
-        <v>1</v>
-      </c>
-      <c r="G41" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
+        <v>4111</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="13">
         <v>4112</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B43" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>91</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
         <v>4113</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>92</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
-        <v>4201</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" t="s">
-        <v>93</v>
-      </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
@@ -1867,18 +1860,18 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1890,18 +1883,18 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <v>4203</v>
+        <v>4202</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
@@ -1913,18 +1906,18 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>4204</v>
+        <v>4203</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -1941,13 +1934,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>4205</v>
+        <v>4204</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1959,18 +1952,18 @@
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>4206</v>
+        <v>4205</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1987,13 +1980,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
-        <v>4207</v>
+        <v>4206</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
@@ -2010,13 +2003,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>4208</v>
+        <v>4207</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -2033,13 +2026,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
-        <v>4209</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>41</v>
+        <v>4208</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -2056,13 +2049,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
-        <v>4210</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>42</v>
+        <v>4209</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -2079,13 +2072,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
-        <v>4211</v>
+        <v>4210</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -2102,57 +2095,60 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
+        <v>4211</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
         <v>4212</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>104</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>123</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" t="b">
-        <v>1</v>
-      </c>
-      <c r="F56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>4301</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" t="s">
-        <v>105</v>
-      </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
@@ -2161,20 +2157,17 @@
       </c>
       <c r="F57" t="b">
         <v>1</v>
-      </c>
-      <c r="G57" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -2186,18 +2179,18 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -2214,13 +2207,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -2237,60 +2230,60 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
+        <v>4304</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>4305</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>109</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" t="b">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>110</v>
       </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
-      <c r="E62" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" t="b">
-        <v>1</v>
-      </c>
-      <c r="G62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>4401</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" t="s">
-        <v>111</v>
-      </c>
       <c r="D63" t="s">
         <v>7</v>
       </c>
@@ -2301,18 +2294,18 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -2324,64 +2317,64 @@
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
+        <v>4402</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="b">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>4403</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>23</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>113</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" t="b">
-        <v>1</v>
-      </c>
-      <c r="G65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" t="b">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
         <v>4404</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>17</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>114</v>
-      </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" t="b">
-        <v>1</v>
-      </c>
-      <c r="F66" t="b">
-        <v>1</v>
-      </c>
-      <c r="G66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>4405</v>
-      </c>
-      <c r="B67" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" t="s">
-        <v>115</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -2398,13 +2391,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>4406</v>
+        <v>4405</v>
       </c>
       <c r="B68" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -2421,47 +2414,70 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
+        <v>4406</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>4407</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>18</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>117</v>
       </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" t="b">
-        <v>1</v>
-      </c>
-      <c r="F69" t="b">
-        <v>1</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>118</v>
       </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" t="b">
-        <v>1</v>
-      </c>
-      <c r="F70" t="b">
-        <v>1</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/raw_data/user_error_config.xlsx
+++ b/src/raw_data/user_error_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDB2A8C-6419-EF41-86FB-7FBD526ED5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F3735E-D89F-3644-BDDB-D372FDE4ED2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23020" yWindow="1020" windowWidth="11040" windowHeight="21080" xr2:uid="{626C9B5B-E040-FC44-A9E5-5F14A96B8943}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -506,12 +506,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCECA078-69AF-BC4B-BFC0-9E083A89901D}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="169" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -887,10 +889,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="10">
         <v>1101</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
@@ -910,10 +912,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="10">
         <v>1102</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
@@ -933,10 +935,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>1103</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
@@ -956,10 +958,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>1104</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
@@ -979,10 +981,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>1105</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
@@ -1002,10 +1004,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>1106</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
@@ -1025,10 +1027,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <v>1107</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C8" t="s">
@@ -1048,10 +1050,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>1108</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
@@ -1209,10 +1211,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="15">
         <v>2101</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
@@ -1232,10 +1234,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="15">
         <v>2102</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
@@ -1255,10 +1257,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="15">
         <v>2103</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
@@ -1278,10 +1280,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="15">
         <v>2104</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
@@ -1301,10 +1303,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="A20" s="15">
         <v>2105</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C20" t="s">
@@ -1324,10 +1326,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="15">
         <v>2106</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>129</v>
       </c>
       <c r="C21" t="s">
@@ -1347,10 +1349,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C22" t="s">
@@ -1370,10 +1372,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C23" t="s">
@@ -1565,10 +1567,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
+      <c r="A32" s="13">
         <v>4101</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C32" t="s">
@@ -1588,10 +1590,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
+      <c r="A33" s="13">
         <v>4102</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
@@ -1611,10 +1613,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
+      <c r="A34" s="13">
         <v>4103</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C34" t="s">
@@ -1634,10 +1636,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
+      <c r="A35" s="13">
         <v>4104</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C35" t="s">
@@ -1657,10 +1659,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
+      <c r="A36" s="13">
         <v>4105</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C36" t="s">
@@ -1680,10 +1682,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
+      <c r="A37" s="13">
         <v>4106</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C37" t="s">
@@ -1703,10 +1705,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
+      <c r="A38" s="13">
         <v>4107</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
@@ -1726,10 +1728,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
+      <c r="A39" s="13">
         <v>4108</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C39" t="s">
@@ -1749,10 +1751,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
+      <c r="A40" s="13">
         <v>4109</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C40" t="s">
@@ -1772,7 +1774,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+      <c r="A41" s="14">
         <v>4110</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -1795,10 +1797,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
+      <c r="A42" s="13">
         <v>4111</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C42" t="s">
@@ -1818,7 +1820,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
+      <c r="A43" s="14">
         <v>4112</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -1841,10 +1843,10 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="12">
+      <c r="A44" s="13">
         <v>4113</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C44" t="s">

--- a/src/raw_data/user_error_config.xlsx
+++ b/src/raw_data/user_error_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F3735E-D89F-3644-BDDB-D372FDE4ED2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5608A4-DDD6-B844-9C98-79DD2466AF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23020" yWindow="1020" windowWidth="11040" windowHeight="21080" xr2:uid="{626C9B5B-E040-FC44-A9E5-5F14A96B8943}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="129">
   <si>
     <t>error_code</t>
   </si>
@@ -47,9 +47,6 @@
     <t>correct</t>
   </si>
   <si>
-    <t>1206</t>
-  </si>
-  <si>
     <t>4408</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>Uniqueness</t>
   </si>
   <si>
-    <t>Acuraccy</t>
-  </si>
-  <si>
     <t>Out of scope</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>NAME: Initials present</t>
   </si>
   <si>
-    <t>NAME: replacing šćčž to scz</t>
-  </si>
-  <si>
     <t>SURNAME: Missing Data</t>
   </si>
   <si>
@@ -234,9 +225,6 @@
   </si>
   <si>
     <t>SURNAME: Duplicates</t>
-  </si>
-  <si>
-    <t>SURNAME: replacing šćčž to scz</t>
   </si>
   <si>
     <t>EMAIL: Missing Data</t>
@@ -848,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCECA078-69AF-BC4B-BFC0-9E083A89901D}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -870,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -885,7 +873,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -893,13 +881,13 @@
         <v>1101</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -908,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -916,13 +904,13 @@
         <v>1102</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -931,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -939,13 +927,13 @@
         <v>1103</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -954,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -962,13 +950,13 @@
         <v>1104</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -977,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -985,13 +973,13 @@
         <v>1105</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1000,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1008,13 +996,13 @@
         <v>1106</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1023,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1031,13 +1019,13 @@
         <v>1107</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1046,21 +1034,21 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>1108</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>21</v>
+      <c r="A9" s="1">
+        <v>1201</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1069,21 +1057,21 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1097,16 +1085,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1115,21 +1103,21 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1138,21 +1126,21 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -1165,40 +1153,40 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>1205</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>18</v>
+      <c r="A14" s="15">
+        <v>2101</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>21</v>
+      <c r="A15" s="15">
+        <v>2102</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -1207,21 +1195,21 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -1230,21 +1218,21 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -1253,21 +1241,21 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -1276,21 +1264,21 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -1299,21 +1287,21 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
-        <v>2105</v>
+      <c r="A20" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -1322,44 +1310,32 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
-        <v>2106</v>
+      <c r="A21" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>127</v>
+      <c r="A22" s="1">
+        <v>3101</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -1368,32 +1344,44 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>131</v>
+      <c r="A23" s="1">
+        <v>3102</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>3101</v>
+        <v>3103</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -1402,21 +1390,21 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>3102</v>
+        <v>3104</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -1425,21 +1413,21 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>3103</v>
+        <v>3105</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -1448,21 +1436,21 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>3104</v>
+        <v>3106</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -1471,21 +1459,21 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>3105</v>
+        <v>3107</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -1494,67 +1482,67 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>3106</v>
+        <v>3108</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>4101</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
+        <v>4102</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
         <v>77</v>
       </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>3107</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>3108</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>79</v>
-      </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -1563,21 +1551,21 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
-        <v>4101</v>
+        <v>4103</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -1591,16 +1579,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
-        <v>4102</v>
-      </c>
-      <c r="B33" s="11" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -1609,21 +1597,21 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
-        <v>4103</v>
+        <v>4105</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -1632,21 +1620,21 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
-        <v>4104</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>17</v>
+        <v>4106</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -1655,21 +1643,21 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
-        <v>4105</v>
+        <v>4107</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -1678,21 +1666,21 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="13">
-        <v>4106</v>
+        <v>4108</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -1701,21 +1689,21 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
-        <v>4107</v>
+        <v>4109</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -1724,21 +1712,21 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
-        <v>4108</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>31</v>
+      <c r="A39" s="14">
+        <v>4110</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -1752,16 +1740,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
-        <v>4109</v>
+        <v>4111</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -1770,21 +1758,21 @@
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
-        <v>4110</v>
+        <v>4112</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -1793,67 +1781,67 @@
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
-        <v>4111</v>
-      </c>
-      <c r="B42" s="11" t="s">
+        <v>4113</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>4201</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>4202</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
         <v>90</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="14">
-        <v>4112</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="13">
-        <v>4113</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" t="s">
-        <v>92</v>
-      </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -1862,21 +1850,21 @@
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>4201</v>
+        <v>4203</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -1885,21 +1873,21 @@
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <v>4202</v>
+        <v>4204</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
@@ -1908,21 +1896,21 @@
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>4203</v>
+        <v>4205</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
@@ -1936,16 +1924,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>4204</v>
+        <v>4206</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
@@ -1959,16 +1947,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>4205</v>
+        <v>4207</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
@@ -1977,21 +1965,21 @@
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
-        <v>4206</v>
+        <v>4208</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
@@ -2000,21 +1988,21 @@
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>4207</v>
-      </c>
-      <c r="B51" s="6" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
@@ -2023,21 +2011,21 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
-        <v>4208</v>
-      </c>
-      <c r="B52" s="6" t="s">
+        <v>4210</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
@@ -2046,21 +2034,21 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
-        <v>4209</v>
-      </c>
-      <c r="B53" s="7" t="s">
+        <v>4211</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
@@ -2069,110 +2057,110 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
-        <v>4210</v>
+        <v>4212</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>4301</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>4302</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
         <v>102</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" t="b">
-        <v>1</v>
-      </c>
-      <c r="G54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="5">
-        <v>4211</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C55" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" t="b">
-        <v>1</v>
-      </c>
-      <c r="G55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="5">
-        <v>4212</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" t="b">
-        <v>1</v>
-      </c>
-      <c r="F56" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" t="s">
-        <v>123</v>
-      </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="b">
         <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>4301</v>
+        <v>4303</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E58" t="b">
         <v>1</v>
@@ -2186,16 +2174,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>4302</v>
+        <v>4304</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59" t="b">
         <v>1</v>
@@ -2204,21 +2192,21 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>4303</v>
+        <v>4305</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
@@ -2227,21 +2215,21 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>4304</v>
+      <c r="A61" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
@@ -2250,21 +2238,21 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>4305</v>
+        <v>4401</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
@@ -2273,21 +2261,21 @@
         <v>1</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>120</v>
+      <c r="A63" s="1">
+        <v>4402</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E63" t="b">
         <v>1</v>
@@ -2296,21 +2284,21 @@
         <v>1</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>4401</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>14</v>
+        <v>4403</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
@@ -2323,17 +2311,17 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>4402</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="A65" s="4">
+        <v>4404</v>
+      </c>
+      <c r="B65" t="s">
         <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
@@ -2342,21 +2330,21 @@
         <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>4403</v>
+        <v>4405</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C66" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
@@ -2365,21 +2353,21 @@
         <v>1</v>
       </c>
       <c r="G66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>4404</v>
+      <c r="A67" s="1">
+        <v>4406</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
@@ -2388,21 +2376,21 @@
         <v>1</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>4405</v>
+        <v>4407</v>
       </c>
       <c r="B68" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
@@ -2415,17 +2403,17 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>4406</v>
-      </c>
-      <c r="B69" t="s">
-        <v>30</v>
+      <c r="A69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
@@ -2434,53 +2422,7 @@
         <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>4407</v>
-      </c>
-      <c r="B70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" t="s">
-        <v>117</v>
-      </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" t="b">
-        <v>1</v>
-      </c>
-      <c r="F70" t="b">
-        <v>1</v>
-      </c>
-      <c r="G70" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" t="s">
-        <v>118</v>
-      </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" t="b">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/raw_data/user_error_config.xlsx
+++ b/src/raw_data/user_error_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5608A4-DDD6-B844-9C98-79DD2466AF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8AD964-5C95-A745-89E7-2F0AE3F78B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23020" yWindow="1020" windowWidth="11040" windowHeight="21080" xr2:uid="{626C9B5B-E040-FC44-A9E5-5F14A96B8943}"/>
   </bookViews>
@@ -494,7 +494,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -502,6 +501,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCECA078-69AF-BC4B-BFC0-9E083A89901D}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="169" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,10 +879,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>1101</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
@@ -900,10 +902,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>1102</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
@@ -923,10 +925,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="12">
         <v>1103</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
@@ -946,10 +948,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="12">
         <v>1104</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C5" t="s">
@@ -969,10 +971,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="12">
         <v>1105</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
@@ -992,10 +994,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="12">
         <v>1106</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C7" t="s">
@@ -1015,10 +1017,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="12">
         <v>1107</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
@@ -1153,10 +1155,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>2101</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
@@ -1176,10 +1178,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>2102</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="s">
@@ -1199,10 +1201,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>2103</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
@@ -1222,10 +1224,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>2104</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="s">
@@ -1245,10 +1247,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>2105</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
@@ -1268,10 +1270,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <v>2106</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>125</v>
       </c>
       <c r="C19" t="s">
@@ -1291,10 +1293,10 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>123</v>
       </c>
       <c r="C20" t="s">
@@ -1314,10 +1316,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>127</v>
       </c>
       <c r="C21" t="s">
@@ -1325,10 +1327,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="8">
         <v>3101</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
@@ -1348,10 +1350,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="8">
         <v>3102</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="s">
@@ -1371,10 +1373,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="8">
         <v>3103</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C24" t="s">
@@ -1394,10 +1396,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="8">
         <v>3104</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
@@ -1417,10 +1419,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="8">
         <v>3105</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C26" t="s">
@@ -1440,10 +1442,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="8">
         <v>3106</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C27" t="s">
@@ -1463,10 +1465,10 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="8">
         <v>3107</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C28" t="s">
@@ -1486,10 +1488,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="8">
         <v>3108</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C29" t="s">
@@ -1509,10 +1511,10 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
+      <c r="A30" s="12">
         <v>4101</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C30" t="s">
@@ -1532,10 +1534,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="13">
+      <c r="A31" s="12">
         <v>4102</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="s">
@@ -1555,10 +1557,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
+      <c r="A32" s="12">
         <v>4103</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C32" t="s">
@@ -1578,10 +1580,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
+      <c r="A33" s="12">
         <v>4104</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
@@ -1601,10 +1603,10 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+      <c r="A34" s="12">
         <v>4105</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C34" t="s">
@@ -1624,10 +1626,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+      <c r="A35" s="12">
         <v>4106</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C35" t="s">
@@ -1647,10 +1649,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>4107</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C36" t="s">
@@ -1670,10 +1672,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
+      <c r="A37" s="12">
         <v>4108</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C37" t="s">
@@ -1693,10 +1695,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
+      <c r="A38" s="12">
         <v>4109</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
@@ -1716,7 +1718,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="14">
+      <c r="A39" s="13">
         <v>4110</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -1739,10 +1741,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="13">
+      <c r="A40" s="12">
         <v>4111</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C40" t="s">
@@ -1762,7 +1764,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="14">
+      <c r="A41" s="13">
         <v>4112</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -1785,10 +1787,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="13">
+      <c r="A42" s="12">
         <v>4113</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C42" t="s">

--- a/src/raw_data/user_error_config.xlsx
+++ b/src/raw_data/user_error_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A31AF6-88DD-FA42-9230-1F19FABB8D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6DA076-62DE-DE49-9767-CA5E95803FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{626C9B5B-E040-FC44-A9E5-5F14A96B8943}"/>
+    <workbookView xWindow="21620" yWindow="1020" windowWidth="12420" windowHeight="21080" xr2:uid="{626C9B5B-E040-FC44-A9E5-5F14A96B8943}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -803,16 +814,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCECA078-69AF-BC4B-BFC0-9E083A89901D}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="187" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="187" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -1473,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="s">
         <v>7</v>
@@ -1519,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="s">
         <v>8</v>
@@ -2351,6 +2362,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/raw_data/user_error_config.xlsx
+++ b/src/raw_data/user_error_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6DA076-62DE-DE49-9767-CA5E95803FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3AD833-85F0-A04D-96CB-E88587CA3A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21620" yWindow="1020" windowWidth="12420" windowHeight="21080" xr2:uid="{626C9B5B-E040-FC44-A9E5-5F14A96B8943}"/>
   </bookViews>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCECA078-69AF-BC4B-BFC0-9E083A89901D}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="187" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="187" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>

--- a/src/raw_data/user_error_config.xlsx
+++ b/src/raw_data/user_error_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3AD833-85F0-A04D-96CB-E88587CA3A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A71221F-2694-684D-B2CC-78ABAC7057D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21620" yWindow="1020" windowWidth="12420" windowHeight="21080" xr2:uid="{626C9B5B-E040-FC44-A9E5-5F14A96B8943}"/>
   </bookViews>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCECA078-69AF-BC4B-BFC0-9E083A89901D}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="187" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -869,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="s">
         <v>8</v>
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="s">
         <v>8</v>
@@ -1760,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
@@ -2368,5 +2368,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/raw_data/user_error_config.xlsx
+++ b/src/raw_data/user_error_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A71221F-2694-684D-B2CC-78ABAC7057D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9761ED56-FC56-3C4C-BE78-7A37D628C921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21620" yWindow="1020" windowWidth="12420" windowHeight="21080" xr2:uid="{626C9B5B-E040-FC44-A9E5-5F14A96B8943}"/>
+    <workbookView xWindow="21620" yWindow="1020" windowWidth="12420" windowHeight="21060" xr2:uid="{626C9B5B-E040-FC44-A9E5-5F14A96B8943}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCECA078-69AF-BC4B-BFC0-9E083A89901D}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="187" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>

--- a/src/raw_data/user_error_config.xlsx
+++ b/src/raw_data/user_error_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9761ED56-FC56-3C4C-BE78-7A37D628C921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4094DDD6-0712-A34B-9476-16DC8F523FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21620" yWindow="1020" windowWidth="12420" windowHeight="21060" xr2:uid="{626C9B5B-E040-FC44-A9E5-5F14A96B8943}"/>
   </bookViews>
@@ -814,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCECA078-69AF-BC4B-BFC0-9E083A89901D}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="187" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="187" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
